--- a/Pandas/example.xlsx
+++ b/Pandas/example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,80 +434,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>15</v>
       </c>
     </row>
